--- a/Dokumentation/Testkonzepte.xlsx
+++ b/Dokumentation/Testkonzepte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3848E0D7-0825-4B4D-B6F7-6D618F663B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8D2C5-84F6-4F3D-9151-ED54A6CDC6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="1395" windowWidth="14400" windowHeight="8175" xr2:uid="{8F32213E-6474-4997-8A4B-C1B4ABE39F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F32213E-6474-4997-8A4B-C1B4ABE39F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="142">
   <si>
     <t>Testfall-ID</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Tatsächliches Ergebnis</t>
-  </si>
-  <si>
-    <t>Status (OK/Fehler)</t>
   </si>
   <si>
     <t>/dozenten.php</t>
@@ -290,12 +287,6 @@
     <t>HTTP 201 Land erfolgreich erstellt</t>
   </si>
   <si>
-    <t>Status (Erfolgreicht/Fehler)</t>
-  </si>
-  <si>
-    <t>Erfolgreicht</t>
-  </si>
-  <si>
     <t>LB-001</t>
   </si>
   <si>
@@ -885,6 +876,12 @@
   </si>
   <si>
     <t>HTTP 200: Ressource erfolgreich aktualisiert</t>
+  </si>
+  <si>
+    <t>Status (Erfolgreich/Fehler)</t>
+  </si>
+  <si>
+    <t>Erfolgreich</t>
   </si>
 </sst>
 </file>
@@ -921,7 +918,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -929,11 +926,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -945,6 +957,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF5BA3-86E1-446C-9C76-E1A58A11B9C6}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1300,164 +1324,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="66">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="66">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="66">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="66">
-      <c r="A3" s="2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="45">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="45">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>49</v>
+      <c r="D6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1471,164 +1495,164 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
+      <c r="H10" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="60">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>49</v>
+      <c r="H14" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="60">
-      <c r="A15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>49</v>
+      <c r="A15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1661,141 +1685,141 @@
         <v>6</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="66">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="60">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="60">
       <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="60">
       <c r="A23" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1825,141 +1849,141 @@
         <v>6</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="78.75">
       <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="60">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="30">
       <c r="A29" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="45">
       <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60">
       <c r="A31" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -1992,141 +2016,141 @@
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="104.25">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="60">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="60">
       <c r="A39" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2159,137 +2183,137 @@
         <v>6</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="60">
       <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="60">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="45">
       <c r="A46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="60">
       <c r="A47" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30">
@@ -2315,137 +2339,137 @@
         <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="78.75">
       <c r="A52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="60">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="45">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="60">
       <c r="A56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="G56" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
